--- a/estimations/KR15_FF_20090210_s2/data_20090210.xlsx
+++ b/estimations/KR15_FF_20090210_s2/data_20090210.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -554,9 +564,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W2" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -628,9 +644,15 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -702,9 +724,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W4" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -776,9 +804,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W5" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -850,9 +884,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W6" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.3</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -924,9 +964,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.2</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -998,9 +1044,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W8" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -1072,9 +1124,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W9" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -1146,9 +1204,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -1220,9 +1284,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W11" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -1294,9 +1364,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W12" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -1368,9 +1444,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W13" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -1442,9 +1524,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -1516,9 +1604,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -1590,9 +1684,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -1664,9 +1764,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.7</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -1738,9 +1844,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W18" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -1812,9 +1924,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W19" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -1886,9 +2004,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W20" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -1960,9 +2084,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W21" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.2</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -2034,9 +2164,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W22" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -2108,9 +2244,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W23" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -2182,9 +2324,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W24" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -2256,9 +2404,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.3</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -2330,9 +2484,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -2404,9 +2564,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.7</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -2478,9 +2644,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W28" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -2552,9 +2724,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W29" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -2626,9 +2804,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -2700,9 +2884,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -2774,9 +2964,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -2848,9 +3044,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W33" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -2922,9 +3124,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W34" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -2996,9 +3204,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W35" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -3070,9 +3284,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W36" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -3144,9 +3364,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W37" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -3218,9 +3444,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W38" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -3292,9 +3524,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.8</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -3366,9 +3604,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -3442,9 +3686,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -3518,9 +3768,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.2</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -3594,9 +3850,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W43" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -3670,9 +3932,15 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -3746,9 +4014,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W45" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -3822,9 +4096,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -3898,9 +4178,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -3974,9 +4260,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -4050,9 +4342,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -4126,9 +4424,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.5</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -4202,9 +4506,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -4278,9 +4588,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -4354,9 +4670,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -4430,9 +4752,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W54" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -4506,9 +4834,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W55" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -4582,9 +4916,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -4658,9 +4998,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -4734,9 +5080,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -4810,9 +5162,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W59" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -4886,9 +5244,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -4962,9 +5326,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.3</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -5038,9 +5408,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W62" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -5114,9 +5490,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W63" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -5190,9 +5572,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -5266,9 +5654,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -5342,9 +5736,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W66" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y66" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -5418,9 +5818,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W67" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -5494,9 +5900,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W68" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y68" t="n">
         <v>3.9</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -5570,9 +5982,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W69" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -5646,9 +6064,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W70" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -5722,9 +6146,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W71" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -5798,9 +6228,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W72" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.5</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -5874,9 +6310,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W73" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.7</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -5950,9 +6392,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W74" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -6026,9 +6474,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W75" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -6102,9 +6556,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W76" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -6178,9 +6638,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W77" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -6254,9 +6720,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W78" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X78" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -6330,9 +6802,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W79" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -6406,9 +6884,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W80" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -6482,9 +6966,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W81" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.7</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -6558,9 +7048,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W82" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -6634,9 +7130,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W83" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -6710,9 +7212,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W84" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -6786,9 +7294,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W85" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.3050959360992143</v>
       </c>
     </row>
@@ -6862,9 +7376,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W86" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.04282294119780695</v>
       </c>
     </row>
@@ -6938,9 +7458,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W87" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.4957452109110861</v>
       </c>
     </row>
@@ -7014,9 +7540,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W88" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.01852266143093755</v>
       </c>
     </row>
@@ -7090,9 +7622,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.4074557379012421</v>
       </c>
     </row>
@@ -7166,9 +7704,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.5011850671494409</v>
       </c>
     </row>
@@ -7242,9 +7786,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.197349322803286</v>
       </c>
     </row>
@@ -7318,9 +7868,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W92" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>1.692718040446249</v>
       </c>
     </row>
@@ -7394,9 +7950,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W93" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.5</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.189263666879081</v>
       </c>
     </row>
@@ -7470,9 +8032,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W94" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.2963218980143068</v>
       </c>
     </row>
@@ -7546,9 +8114,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W95" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.7</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.4266524867614028</v>
       </c>
     </row>
@@ -7622,9 +8196,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W96" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.8</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.6032442192905649</v>
       </c>
     </row>
@@ -7698,9 +8278,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W97" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.2911764582629277</v>
       </c>
     </row>
@@ -7774,9 +8360,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W98" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y98" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-0.05048749172323386</v>
       </c>
     </row>
@@ -7850,9 +8442,15 @@
         <v>-5.202310727507589</v>
       </c>
       <c r="W99" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y99" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.06654784374018423</v>
       </c>
     </row>
@@ -7924,9 +8522,13 @@
         <v>-8.871951382811561</v>
       </c>
       <c r="W100" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>1.23865733028137</v>
       </c>
     </row>
@@ -7941,7 +8543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8057,10 +8659,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -8134,9 +8746,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W2" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -8208,9 +8826,15 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -8282,9 +8906,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W4" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -8356,9 +8986,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W5" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -8430,9 +9066,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W6" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.3</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -8504,9 +9146,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.2</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -8578,9 +9226,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W8" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -8652,9 +9306,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W9" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -8726,9 +9386,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -8800,9 +9466,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W11" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -8874,9 +9546,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W12" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -8948,9 +9626,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W13" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -9022,9 +9706,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -9096,9 +9786,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -9170,9 +9866,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -9244,9 +9946,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.7</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -9318,9 +10026,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W18" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -9392,9 +10106,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W19" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -9466,9 +10186,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W20" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -9540,9 +10266,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W21" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.2</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -9614,9 +10346,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W22" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -9688,9 +10426,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W23" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -9762,9 +10506,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W24" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -9836,9 +10586,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.3</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -9910,9 +10666,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -9984,9 +10746,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.7</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -10058,9 +10826,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W28" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -10132,9 +10906,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W29" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -10206,9 +10986,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -10280,9 +11066,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -10354,9 +11146,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -10428,9 +11226,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W33" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -10502,9 +11306,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W34" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -10576,9 +11386,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W35" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -10650,9 +11466,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W36" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -10724,9 +11546,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W37" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -10798,9 +11626,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W38" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -10872,9 +11706,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.8</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -10946,9 +11786,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -11022,9 +11868,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -11098,9 +11950,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.2</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -11174,9 +12032,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W43" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -11250,9 +12114,15 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -11326,9 +12196,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W45" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -11402,9 +12278,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -11478,9 +12360,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -11554,9 +12442,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -11630,9 +12524,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -11706,9 +12606,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.5</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -11782,9 +12688,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -11858,9 +12770,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -11934,9 +12852,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -12010,9 +12934,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W54" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -12086,9 +13016,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W55" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -12162,9 +13098,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -12238,9 +13180,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -12314,9 +13262,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -12390,9 +13344,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W59" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -12466,9 +13426,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -12542,9 +13508,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.3</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -12618,9 +13590,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W62" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -12694,9 +13672,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W63" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -12770,9 +13754,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -12846,9 +13836,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -12922,9 +13918,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W66" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y66" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -12998,9 +14000,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W67" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -13074,9 +14082,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W68" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y68" t="n">
         <v>3.9</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -13150,9 +14164,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W69" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -13226,9 +14246,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W70" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -13302,9 +14328,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W71" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -13378,9 +14410,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W72" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.5</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -13454,9 +14492,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W73" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.7</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -13530,9 +14574,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W74" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -13606,9 +14656,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W75" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -13682,9 +14738,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W76" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -13758,9 +14820,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W77" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -13834,9 +14902,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W78" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X78" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -13910,9 +14984,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W79" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -13986,9 +15066,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W80" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -14062,9 +15148,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W81" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.7</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -14138,9 +15230,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W82" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -14214,9 +15312,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W83" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -14290,9 +15394,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W84" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -14366,9 +15476,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W85" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.3050959360992143</v>
       </c>
     </row>
@@ -14442,9 +15558,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W86" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.04282294119780695</v>
       </c>
     </row>
@@ -14518,9 +15640,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W87" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.4957452109110861</v>
       </c>
     </row>
@@ -14594,9 +15722,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W88" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.01852266143093755</v>
       </c>
     </row>
@@ -14670,9 +15804,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.4074557379012421</v>
       </c>
     </row>
@@ -14746,9 +15886,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.5011850671494409</v>
       </c>
     </row>
@@ -14822,9 +15968,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.197349322803286</v>
       </c>
     </row>
@@ -14898,9 +16050,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W92" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>1.692718040446249</v>
       </c>
     </row>
@@ -14974,9 +16132,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W93" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.5</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.189263666879081</v>
       </c>
     </row>
@@ -15050,9 +16214,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W94" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.2963218980143068</v>
       </c>
     </row>
@@ -15126,9 +16296,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W95" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.7</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.4266524867614028</v>
       </c>
     </row>
@@ -15202,9 +16378,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W96" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.8</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.6032442192905649</v>
       </c>
     </row>
@@ -15278,9 +16460,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W97" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.2911764582629277</v>
       </c>
     </row>
@@ -15354,9 +16542,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W98" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y98" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-0.05048749172323386</v>
       </c>
     </row>
@@ -15430,9 +16624,15 @@
         <v>-5.202310727507589</v>
       </c>
       <c r="W99" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y99" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.06654784374018423</v>
       </c>
     </row>
@@ -15504,9 +16704,13 @@
         <v>-8.871951382811561</v>
       </c>
       <c r="W100" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>1.23865733028137</v>
       </c>
     </row>
@@ -15549,10 +16753,10 @@
       <c r="V101" t="n">
         <v>-6.913173729570708</v>
       </c>
-      <c r="W101" t="n">
-        <v>7.7649</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -15565,7 +16769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15681,10 +16885,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -15758,9 +16972,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W2" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -15832,9 +17052,15 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -15906,9 +17132,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W4" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -15980,9 +17212,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W5" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -16054,9 +17292,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W6" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.3</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -16128,9 +17372,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.2</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -16202,9 +17452,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W8" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -16276,9 +17532,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W9" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -16350,9 +17612,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -16424,9 +17692,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W11" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -16498,9 +17772,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W12" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -16572,9 +17852,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W13" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -16646,9 +17932,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -16720,9 +18012,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -16794,9 +18092,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -16868,9 +18172,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.7</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -16942,9 +18252,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W18" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -17016,9 +18332,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W19" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -17090,9 +18412,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W20" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -17164,9 +18492,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W21" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.2</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -17238,9 +18572,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W22" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -17312,9 +18652,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W23" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -17386,9 +18732,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W24" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -17460,9 +18812,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.3</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -17534,9 +18892,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -17608,9 +18972,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.7</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -17682,9 +19052,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W28" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -17756,9 +19132,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W29" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -17830,9 +19212,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -17904,9 +19292,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -17978,9 +19372,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -18052,9 +19452,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W33" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -18126,9 +19532,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W34" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -18200,9 +19612,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W35" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -18274,9 +19692,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W36" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -18348,9 +19772,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W37" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -18422,9 +19852,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W38" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -18496,9 +19932,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.8</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -18570,9 +20012,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -18646,9 +20094,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -18722,9 +20176,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.2</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -18798,9 +20258,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W43" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -18874,9 +20340,15 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -18950,9 +20422,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W45" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -19026,9 +20504,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -19102,9 +20586,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -19178,9 +20668,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -19254,9 +20750,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -19330,9 +20832,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.5</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -19406,9 +20914,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -19482,9 +20996,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -19558,9 +21078,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -19634,9 +21160,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W54" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -19710,9 +21242,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W55" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -19786,9 +21324,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -19862,9 +21406,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -19938,9 +21488,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -20014,9 +21570,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W59" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -20090,9 +21652,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -20166,9 +21734,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.3</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -20242,9 +21816,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W62" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -20318,9 +21898,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W63" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -20394,9 +21980,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -20470,9 +22062,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -20546,9 +22144,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W66" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y66" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -20622,9 +22226,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W67" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -20698,9 +22308,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W68" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y68" t="n">
         <v>3.9</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -20774,9 +22390,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W69" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -20850,9 +22472,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W70" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -20926,9 +22554,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W71" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -21002,9 +22636,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W72" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.5</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -21078,9 +22718,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W73" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.7</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -21154,9 +22800,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W74" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -21230,9 +22882,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W75" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -21306,9 +22964,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W76" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -21382,9 +23046,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W77" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -21458,9 +23128,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W78" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X78" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -21534,9 +23210,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W79" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -21610,9 +23292,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W80" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -21686,9 +23374,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W81" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.7</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -21762,9 +23456,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W82" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -21838,9 +23538,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W83" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -21914,9 +23620,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W84" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -21990,9 +23702,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W85" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.3050959360992143</v>
       </c>
     </row>
@@ -22066,9 +23784,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W86" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.04282294119780695</v>
       </c>
     </row>
@@ -22142,9 +23866,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W87" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.4957452109110861</v>
       </c>
     </row>
@@ -22218,9 +23948,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W88" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.01852266143093755</v>
       </c>
     </row>
@@ -22294,9 +24030,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.4074557379012421</v>
       </c>
     </row>
@@ -22370,9 +24112,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.5011850671494409</v>
       </c>
     </row>
@@ -22446,9 +24194,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.197349322803286</v>
       </c>
     </row>
@@ -22522,9 +24276,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W92" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>1.692718040446249</v>
       </c>
     </row>
@@ -22598,9 +24358,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W93" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.5</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.189263666879081</v>
       </c>
     </row>
@@ -22674,9 +24440,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W94" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.2963218980143068</v>
       </c>
     </row>
@@ -22750,9 +24522,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W95" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.7</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.4266524867614028</v>
       </c>
     </row>
@@ -22826,9 +24604,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W96" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.8</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.6032442192905649</v>
       </c>
     </row>
@@ -22902,9 +24686,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W97" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.2911764582629277</v>
       </c>
     </row>
@@ -22978,9 +24768,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W98" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y98" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-0.05048749172323386</v>
       </c>
     </row>
@@ -23054,9 +24850,15 @@
         <v>-5.202310727507589</v>
       </c>
       <c r="W99" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y99" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.06654784374018423</v>
       </c>
     </row>
@@ -23128,9 +24930,13 @@
         <v>-8.871951382811561</v>
       </c>
       <c r="W100" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>1.23865733028137</v>
       </c>
     </row>
@@ -23169,10 +24975,10 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>7.6</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -23185,7 +24991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23301,10 +25107,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -23378,9 +25194,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W2" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -23452,9 +25274,15 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -23526,9 +25354,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W4" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -23600,9 +25434,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W5" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -23674,9 +25514,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W6" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.3</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -23748,9 +25594,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.2</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -23822,9 +25674,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W8" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -23896,9 +25754,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W9" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -23970,9 +25834,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -24044,9 +25914,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W11" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -24118,9 +25994,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W12" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -24192,9 +26074,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W13" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -24266,9 +26154,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -24340,9 +26234,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -24414,9 +26314,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -24488,9 +26394,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.7</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -24562,9 +26474,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W18" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -24636,9 +26554,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W19" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -24710,9 +26634,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W20" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -24784,9 +26714,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W21" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.2</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -24858,9 +26794,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W22" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -24932,9 +26874,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W23" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -25006,9 +26954,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W24" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -25080,9 +27034,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.3</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -25154,9 +27114,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -25228,9 +27194,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.7</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -25302,9 +27274,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W28" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -25376,9 +27354,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W29" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -25450,9 +27434,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -25524,9 +27514,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -25598,9 +27594,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -25672,9 +27674,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W33" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -25746,9 +27754,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W34" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -25820,9 +27834,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W35" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -25894,9 +27914,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W36" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -25968,9 +27994,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W37" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -26042,9 +28074,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W38" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -26116,9 +28154,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.8</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -26190,9 +28234,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -26266,9 +28316,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -26342,9 +28398,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.2</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -26418,9 +28480,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W43" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -26494,9 +28562,15 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -26570,9 +28644,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W45" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -26646,9 +28726,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -26722,9 +28808,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -26798,9 +28890,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -26874,9 +28972,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -26950,9 +29054,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.5</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -27026,9 +29136,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -27102,9 +29218,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -27178,9 +29300,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -27254,9 +29382,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W54" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -27330,9 +29464,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W55" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -27406,9 +29546,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -27482,9 +29628,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -27558,9 +29710,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -27634,9 +29792,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W59" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -27710,9 +29874,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -27786,9 +29956,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.3</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -27862,9 +30038,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W62" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -27938,9 +30120,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W63" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -28014,9 +30202,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -28090,9 +30284,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -28166,9 +30366,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W66" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y66" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -28242,9 +30448,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W67" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -28318,9 +30530,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W68" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y68" t="n">
         <v>3.9</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -28394,9 +30612,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W69" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -28470,9 +30694,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W70" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -28546,9 +30776,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W71" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -28622,9 +30858,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W72" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.5</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -28698,9 +30940,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W73" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.7</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -28774,9 +31022,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W74" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -28850,9 +31104,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W75" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -28926,9 +31186,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W76" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -29002,9 +31268,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W77" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -29078,9 +31350,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W78" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X78" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -29154,9 +31432,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W79" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -29230,9 +31514,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W80" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -29306,9 +31596,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W81" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.7</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -29382,9 +31678,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W82" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -29458,9 +31760,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W83" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -29534,9 +31842,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W84" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -29610,9 +31924,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W85" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.3050959360992143</v>
       </c>
     </row>
@@ -29686,9 +32006,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W86" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.04282294119780695</v>
       </c>
     </row>
@@ -29762,9 +32088,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W87" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.4957452109110861</v>
       </c>
     </row>
@@ -29838,9 +32170,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W88" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.01852266143093755</v>
       </c>
     </row>
@@ -29914,9 +32252,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.4074557379012421</v>
       </c>
     </row>
@@ -29990,9 +32334,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.5011850671494409</v>
       </c>
     </row>
@@ -30066,9 +32416,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.197349322803286</v>
       </c>
     </row>
@@ -30142,9 +32498,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W92" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>1.692718040446249</v>
       </c>
     </row>
@@ -30218,9 +32580,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W93" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.5</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.189263666879081</v>
       </c>
     </row>
@@ -30294,9 +32662,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W94" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.2963218980143068</v>
       </c>
     </row>
@@ -30370,9 +32744,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W95" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.7</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.4266524867614028</v>
       </c>
     </row>
@@ -30446,9 +32826,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W96" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.8</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.6032442192905649</v>
       </c>
     </row>
@@ -30522,9 +32908,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W97" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.2911764582629277</v>
       </c>
     </row>
@@ -30598,9 +32990,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W98" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y98" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-0.05048749172323386</v>
       </c>
     </row>
@@ -30674,9 +33072,15 @@
         <v>-5.202310727507589</v>
       </c>
       <c r="W99" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y99" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.06654784374018423</v>
       </c>
     </row>
@@ -30748,9 +33152,13 @@
         <v>-8.871951382811561</v>
       </c>
       <c r="W100" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>1.23865733028137</v>
       </c>
     </row>
@@ -30801,10 +33209,10 @@
       <c r="V101" t="n">
         <v>-6.913173729570708</v>
       </c>
-      <c r="W101" t="n">
-        <v>7.6</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
